--- a/Robotica/add/Planejamento Trajetoria/PlanejamentoTraj.xlsx
+++ b/Robotica/add/Planejamento Trajetoria/PlanejamentoTraj.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHPGo\OneDrive\Documentos\Robotica\Codigos-matilab\Robotica\Planejamento Trajetoria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHPGo\OneDrive\Documentos\Robotica\Codigos-matilab\Robotica\add\Planejamento Trajetoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1913D2-F121-4E3F-9E39-33FAF664A1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55017EC3-6F82-422B-AAD9-92E56F91B39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7DF6152-DE44-4C19-AD57-08FD4CAC75EC}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="D3:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
       </c>
       <c r="E4" s="1">
         <f>$I$4+$J$4*D4+$K$4*D4^2+$L$4*D4^3+$M$4*D4^4+$N$4*D4^5</f>
-        <v>63.43</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <f>$J$4+$K$4*D4*2+3*$L$4*D4^2+4*$M$4*D4^3+5*$N$4*D4^4</f>
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>63.43</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -517,13 +517,13 @@
         <v>5</v>
       </c>
       <c r="L4" s="1">
-        <v>-1.97</v>
+        <v>0.42970000000000003</v>
       </c>
       <c r="M4" s="1">
-        <v>0.21314</v>
+        <v>-0.15870000000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-6.7514999999999997E-3</v>
+        <v>7.9343999999999994E-3</v>
       </c>
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.25">
@@ -532,15 +532,15 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="0">$I$4+$J$4*D5+$K$4*D5^2+$L$4*D5^3+$M$4*D5^4+$N$4*D5^5</f>
-        <v>66.666388500000011</v>
+        <v>5.2789344000000007</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5:F9" si="1">$J$4+$K$4*D5*2+3*$L$4*D5^2+4*$M$4*D5^3+5*$N$4*D5^4</f>
-        <v>4.9088025000000002</v>
+        <v>10.693971999999999</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="2">2*$K$4+6*$L$4*D5+12*$M$4*D5^2+20*$N$4*D5^3</f>
-        <v>0.60264999999999969</v>
+        <v>10.832488</v>
       </c>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.25">
@@ -549,15 +549,15 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>70.864192000000003</v>
+        <v>21.152300799999999</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>2.6403599999999994</v>
+        <v>20.712752000000002</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>-4.4895200000000006</v>
+        <v>8.8083040000000015</v>
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.25">
@@ -566,15 +566,15 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>70.863725500000015</v>
+        <v>45.675259199999999</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>-2.9052374999999966</v>
+        <v>27.675732</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>-6.086689999999999</v>
+        <v>4.8795759999999984</v>
       </c>
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.25">
@@ -583,15 +583,15 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>65.000304000000014</v>
+        <v>74.99842559999999</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>-8.6380800000000022</v>
+        <v>30.154432000000003</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>-4.9990400000000008</v>
+        <v>-1.5679999999989036E-3</v>
       </c>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.25">
@@ -600,15 +600,15 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>54.29406250000001</v>
+        <v>104.32000000000001</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>-12.278437500000003</v>
+        <v>27.672499999999996</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>-2.0367499999999978</v>
+        <v>-4.8829999999999991</v>
       </c>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.25">
@@ -617,15 +617,15 @@
       </c>
       <c r="E10" s="1">
         <f>$I$4+$J$4*D10+$K$4*D10^2+$L$4*D10^3+$M$4*D10^4+$N$4*D10^5</f>
-        <v>41.63977600000004</v>
+        <v>128.83789439999998</v>
       </c>
       <c r="F10" s="1">
         <f>$J$4+$K$4*D10*2+3*$L$4*D10^2+4*$M$4*D10^3+5*$N$4*D10^4</f>
-        <v>-12.35675999999998</v>
+        <v>20.705711999999991</v>
       </c>
       <c r="G10" s="1">
         <f>2*$K$4+6*$L$4*D10+12*$M$4*D10^2+20*$N$4*D10^3</f>
-        <v>1.9900000000000055</v>
+        <v>-8.8125920000000093</v>
       </c>
     </row>
     <row r="11" spans="4:14" x14ac:dyDescent="0.25">
@@ -634,15 +634,15 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11:E12" si="3">$I$4+$J$4*D11+$K$4*D11^2+$L$4*D11^3+$M$4*D11^4+$N$4*D11^5</f>
-        <v>30.996679499999985</v>
+        <v>144.70186080000002</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ref="F11:F12" si="4">$J$4+$K$4*D11*2+3*$L$4*D11^2+4*$M$4*D11^3+5*$N$4*D11^4</f>
-        <v>-8.2136775000000029</v>
+        <v>10.681972000000016</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ref="G11:G12" si="5">2*$K$4+6*$L$4*D11+12*$M$4*D11^2+20*$N$4*D11^3</f>
-        <v>6.271029999999989</v>
+        <v>-10.83821600000001</v>
       </c>
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.25">
@@ -651,15 +651,15 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="3"/>
-        <v>26.578287999999958</v>
+        <v>149.96561919999994</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.8687999999997373E-2</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="5"/>
-        <v>9.9961600000000033</v>
+        <v>-10.007744000000002</v>
       </c>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.25">
